--- a/uploads/template.xlsx
+++ b/uploads/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\trainingcoverage\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754A1E66-5A25-4498-9EFB-356E311BFF4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152CDAE7-17D0-43BA-83C4-0410B560BC32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,9 +16,20 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$S$1</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -28,13 +39,14 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>inclass/hybrid/webinar</t>
@@ -46,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>NO</t>
   </si>
@@ -98,12 +110,18 @@
   <si>
     <t>JENIS</t>
   </si>
+  <si>
+    <t>CODESUB</t>
+  </si>
+  <si>
+    <t>TYPE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -114,6 +132,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -369,10 +395,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Q1000"/>
+  <dimension ref="A1:S1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -381,21 +407,22 @@
     <col min="2" max="2" width="7.36328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.90625" customWidth="1"/>
     <col min="4" max="4" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3.1796875" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -409,46 +436,52 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -467,7 +500,7 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -486,7 +519,7 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -505,7 +538,7 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -524,7 +557,7 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -543,7 +576,7 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -562,7 +595,7 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -581,7 +614,7 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -600,7 +633,7 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -619,7 +652,7 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -638,7 +671,7 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -657,7 +690,7 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -676,7 +709,7 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -695,7 +728,7 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -714,7 +747,7 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>

--- a/uploads/template.xlsx
+++ b/uploads/template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\trainingcoverage\uploads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Music\evatra\trainingcoverage\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152CDAE7-17D0-43BA-83C4-0410B560BC32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AAD556C-E0A2-459A-8319-EF2563486C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$S$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$T$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,10 +36,35 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>zart</author>
     <author/>
   </authors>
   <commentList>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{1CBCEC5F-01FB-430C-9191-DBE93224439A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>zart:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+internal / inhouse</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -53,20 +78,42 @@
         </r>
       </text>
     </comment>
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{FFD8823F-2A05-41A4-A340-025AD715F751}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>zart:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+leadership &amp; soft skill
+technicall</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>NO</t>
   </si>
   <si>
     <t>INDEKS</t>
-  </si>
-  <si>
-    <t>NAME</t>
   </si>
   <si>
     <t>SUBJECT</t>
@@ -116,12 +163,18 @@
   <si>
     <t>TYPE</t>
   </si>
+  <si>
+    <t>KREDIT HOURS</t>
+  </si>
+  <si>
+    <t>NAME IN HC</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -141,6 +194,19 @@
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -395,10 +461,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:S1000"/>
+  <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -422,7 +488,7 @@
     <col min="18" max="18" width="5.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -430,58 +496,61 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -500,7 +569,7 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -519,7 +588,7 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -538,7 +607,7 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -557,7 +626,7 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -576,7 +645,7 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -595,7 +664,7 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -614,7 +683,7 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -633,7 +702,7 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -652,7 +721,7 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -671,7 +740,7 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -690,7 +759,7 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -709,7 +778,7 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -728,7 +797,7 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -747,7 +816,7 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>

--- a/uploads/template.xlsx
+++ b/uploads/template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Music\evatra\trainingcoverage\uploads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\trainingcoverage\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AAD556C-E0A2-459A-8319-EF2563486C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DCCDDD7-C514-41C6-BBE6-5F2FE5DA6251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$T$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$U$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -78,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{FFD8823F-2A05-41A4-A340-025AD715F751}">
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{FFD8823F-2A05-41A4-A340-025AD715F751}">
       <text>
         <r>
           <rPr>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>NO</t>
   </si>
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t>NAME IN HC</t>
+  </si>
+  <si>
+    <t>INSTRUCTOR NAME</t>
   </si>
 </sst>
 </file>
@@ -461,10 +464,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:T1000"/>
+  <dimension ref="A1:U1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -488,7 +491,7 @@
     <col min="18" max="18" width="5.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -529,28 +532,31 @@
         <v>8</v>
       </c>
       <c r="N1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -569,7 +575,7 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -588,7 +594,7 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -607,7 +613,7 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -626,7 +632,7 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -645,7 +651,7 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -664,7 +670,7 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -683,7 +689,7 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -702,7 +708,7 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -721,7 +727,7 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -740,7 +746,7 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -759,7 +765,7 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -778,7 +784,7 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -797,7 +803,7 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -816,7 +822,7 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
